--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/23_Çankırı_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/23_Çankırı_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C7C2758-3440-4135-9E3E-529EFAC0793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D16ABD-9286-4DF6-862A-ED37904BA9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{7044466C-DCEB-43C3-9E10-7B38249AD78B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{E180A166-9BDC-407F-8A61-BBF7C27DB3E9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D88A0277-97FC-45AA-838A-9C71E2E775FE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8EE9518E-00FA-4E6F-85BC-D6510F018342}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5C329BE9-892C-42DD-AF3E-D99D02D9F3CA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0762F462-99EA-4CC5-94C5-A16EF265A996}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F1F1E3DB-DFF1-4295-AC56-9DCA6A7916B0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0770F224-43E5-4DD6-A420-6430527CC7B9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{92095F03-5F63-4341-BB7C-F43B666447FB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{17E8C9B7-7FDB-4D95-8D35-92AFB9B4A8E3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{078EEB34-786A-463D-8223-BB4CA1D9CEF8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{FF1B3352-46B7-4119-837C-A42CE3C336C5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F98F51F9-1BAE-427D-BDF5-FCD7CDE6CF26}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4679E2DD-C199-4085-996B-DE726C1C7D4B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C3F46399-0A63-46E7-8FA6-61081D1911AF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{306F48DE-A8C3-4AA2-A7D6-54F7DFBC5D2C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B5477-645B-4245-A045-B2E30E319542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272D6204-9413-4C21-B8FF-08AD0417D783}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2517,18 +2517,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{255DA60B-68E1-4B5E-999F-5F5E7FC662F4}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E91EB8C0-6875-4B5D-983B-B5FEB41181E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56A396D1-680A-42D9-90CD-C9F1D0C3E5B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24DFE7AC-9D0A-4826-B2D3-0A31EE04C5DF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83665A4A-FC10-4C9C-AD30-BF3955A635E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6ED8313-3EE3-4A5E-BA19-E1B4B3372215}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7442FC4C-DF94-41C7-B0F2-A9E3E28CFF41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95E50128-AF23-4B11-930B-31E8767E44C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9049D3A8-14B3-4652-8F0F-4EBD244891CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44BBA37C-CE21-4798-9657-85DCA464135C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C4C8F96-4C11-49BB-A748-E31F52A2B9FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{305529BF-BAF4-4011-891E-49DCEDC3BD81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABB9E602-2D69-4ADD-9FFF-ACD915DEC721}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4F62FFC3-2561-4FCB-A116-899C0AD53014}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B85C014-B529-42B8-AD40-8A0B1BF35E1D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD3ED085-EA4D-4B23-B087-D2C07524C926}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBE7C15D-60C4-471E-BC20-7C1F48AFB30F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5D4C651-8954-42CD-81D8-FE377F7C5771}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FDB1EFA-EAF6-4B20-8085-32D42D60B50D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47081793-7CD1-4C88-A4F2-9A6E7ED53270}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F87668E-B7DB-4407-884D-055D7AD6F4F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57012CEF-EE41-474A-9912-AFE8103B3530}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F047823-18D5-4C95-B88C-609DF198FF96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4AB5686-643A-46AE-8E36-5FB70B7663C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2541,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C2B811-D513-4AB5-83A8-E1B0A1349DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C573A657-3C7E-4F10-B63D-D5287D7AB46E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3729,18 +3729,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF8E2103-5EED-42E1-8620-2076DBD6E0E2}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8EA61C25-2D33-4130-8D80-3E6D152E646E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84F39592-8874-4B98-A55A-E5F0F732FDC1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2834612F-C680-4B2C-972F-2B5B7FD60A14}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{332AA8A1-880D-4F2A-9F65-090E0B80449E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A5B8679-D549-4CD0-B5FC-C77CA3AC3719}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{751D5475-55BA-46E6-959F-563AFE745D7E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{487DAC62-E930-446B-9EC4-E2EDAA8C746C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50B5BBEE-2FB4-4CE3-9C9A-1DA8271AB1FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECC66BAA-332A-4D3E-A54F-BE06D9FA4103}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68682AE4-EEA7-4050-81CE-33C47EB81A30}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F17C1A7-EE42-4A8D-A239-3C2501174992}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90B072FC-FC78-4418-8B87-6AFFCCD25E9D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{875A838B-BA69-4523-BC75-0FB644C36B60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{634D6197-8220-4A07-A710-7EFAB1DFBE74}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{840910FD-043A-4B0B-A8E2-9C63D10FAB29}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA9E1F56-D7A3-4137-BDBD-062260C718BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62065DF4-E3C5-4235-A72D-97ED6180AFD2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2B319A6-AA22-486C-A488-83F566A5D7AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01DA31DF-04DD-4765-89C2-AC16BC02A572}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9721D1DF-BEFC-41E6-BE45-A30A7B4B9F92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59040269-C59C-45F5-A732-8DB90076A6DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6441AF0-5E50-478B-880F-609B2C360BB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96D7C3D2-82E4-402E-8282-C17AE6264AFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3753,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9008824-3834-4076-A817-2008DAA440EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4684DEF-BC62-44E6-A9F6-4255C89E1F15}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4941,17 +4941,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E16E08D-847D-4F72-8790-99DB136051A1}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{ECB2E76F-EE0B-4A59-A5D2-1DBBA1B39BB6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A77F1148-BA01-4ABE-8EC0-2FDD5E71728D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD3FCA88-3968-47F6-921C-C2B5C2B2564D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C3AF19B-E660-409D-84BC-CFC72088B68C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AABF27F3-3462-4363-8FCC-68697629ABA6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C88B6A7F-75A0-4130-8150-27FB222FFDB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C773F313-0D5A-48ED-AC8B-D9863C11FF93}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{46E6A202-514E-4A3D-89B3-D89BDFCEC30E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6B11E8C-1850-480E-81E7-FAEF83A33CDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A93051F4-CA61-4A4E-AE35-38EF0607C3E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94C04204-4E75-4A53-B149-626E7C86B3EA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8F18B7B2-0CC1-4FD4-8A6D-9E4E2D771D68}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1154A3E-DFD3-4ECC-999A-4A8932A776B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B6A2D83F-A21D-446E-AC1B-B7BF0EFB3D3D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DDA291B-A542-4F46-BEFD-9FD3BA350F12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8289A195-46E3-45FE-A694-68A7DEE14982}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EEE4BE8-5352-4395-BEE9-10D87A3A6634}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC670DC1-F9DE-4F43-A11E-19F8C5D35D67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B89984E-ADF2-4CB7-9D43-A7CBD87D5184}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64E0D8EC-8B1F-4E04-8F76-70AF58212407}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD5E30AB-931B-4514-8100-F997A85165CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4964,7 +4964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0D161D-6DC1-47CC-8AF4-B2357E737FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746328F5-A086-49ED-9053-F22C5F77EBE6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6152,18 +6152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7A01A8C-D641-4861-9D27-89239793A8C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F170A77D-820D-47B0-B1A4-010870259954}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E3A70CA3-7FD7-4FF1-88CD-5BE033F61166}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{22691DDA-B1C3-4DDB-9835-0E461B56E463}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C21707E9-A61C-49A4-9871-91F21AF8300F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E201EABF-CDFF-4C3F-A737-6C04484FF454}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B955DD6F-3F04-4071-9A88-260B0965A38B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3E90F0D-74AD-4E20-985F-F4CA7A7195AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCDF8370-3EDA-4CB5-BF8D-CB074032AC02}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CCFF29D-68C4-4B8A-B453-F884582E5E3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BBE5B15-1D6B-4908-AA2A-7D82AA0AF1C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{839CEC73-8627-410F-899B-8BAF46A2E4A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7767B57F-38D6-41D7-8B00-04ED1E27AE18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{190975EC-C7A7-4435-BDF0-631355A6F354}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DDED61C1-60F7-4FBD-8640-FE617075C6BA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7703F338-E8BA-42BC-8F53-DEDF7C413FD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA9EE254-78FD-49AB-A48A-4B783255BF62}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECC371D1-C4AD-4ECA-93E7-7B74459CE12C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F788F33D-1637-4F73-A87F-6A05FBCCC654}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F9E6837-BE80-4B1F-B6FE-32B360114A3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9655D7C3-5B91-48FB-A181-724DBA68B33E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D15B4D5B-613D-4D9C-9348-3084E46E884F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75DEB040-7764-471C-B889-924F6FE69827}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD4D8285-8C5B-4B88-845B-26FDD10E25D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6176,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89D643-2109-4943-93E9-1D808C9670F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB171719-D55B-482E-A9F0-6CC9B61EBCCA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7376,18 +7376,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A0AEA5B-87DD-40AF-A2D2-937AD52B6A0B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{28ADD78B-EAA9-45CF-B88F-9B169D5A714B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77D8C02F-0217-43D1-8FFF-0A928F47C3B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{334F1696-AFEC-4CD3-B1B8-7240A540AB26}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22C0F558-305F-4605-80D9-38772B3D1F3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD8878D6-8A8C-49F1-99AF-AFA8018FB345}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94FE879D-DF46-4C9F-B492-F3691E54F28C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35654479-533A-46E8-9AE4-F87574A424E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87DB0A2F-1034-455E-8C35-E674D6C277A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DE88417-CEE4-4819-B89A-188A48E18D79}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{371B9BC7-8BD0-4837-8683-7D67E6E5EEF5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6EE07E54-5BED-4960-BF77-56E2DEE594AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04908404-8714-4932-B017-6F76E59EEA0B}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C6E7E5F3-180B-46D3-A118-1BB71EF748B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E2FBBB5-8374-473C-A03F-A9FD8D33FFF0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{30E8FB22-0CFF-4262-8403-5DC42CC13FCD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F057AD2-1377-4E03-8C7F-FAFCBE0B3430}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0D09876-1A4B-49A4-9CE9-8D9904003226}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2780B5E-CC0B-4C84-B3AC-2758C447F914}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1961C8E-7670-435F-B085-7F53C5698605}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E03AF68D-E208-46A3-903D-FFB7D357D221}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A601E157-B6BC-4FB4-BC5C-0D07C46B1E68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A529565B-75A2-4ABB-8F0B-AD4A2C981ADD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF9E52A9-C932-4B30-A525-B9C8B6D8D0D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7400,7 +7400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2889E00-B877-4A44-A375-EF685D659F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D53C1-BBED-4CAE-85CF-F8EBFC66BD50}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8600,18 +8600,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C22D69A1-356B-4280-B285-2C019A1F9220}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{55472CCB-09F1-41A8-8E60-1D02ED3F8F46}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{585ECC18-FE5E-49AB-8474-766B6159132B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91224E2C-7970-470D-9217-6E46BB8E034C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{783EC15F-26C6-41D2-A618-6D745BA3BA4C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48F430D1-A98F-421A-944D-1631D612BE72}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A96550CE-55EF-4F5B-AEA4-39DBA82B208A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD307B24-661A-4270-89EF-AE4A35FB75A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D8CF0AF-2628-46FC-9999-E51AA91C31FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CC94BE5-88E9-437D-A22F-A61E7E0D6C35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3B58B2F-CCF8-4CCA-8D45-C0FA04DA1A9F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B44A7786-6400-444D-8A34-1DC22022E55B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B362E4F-548A-46E1-B3C9-10FA808666DB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{992C65CA-349C-4D3A-B478-508D1C1A3037}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8B88D62-DCB8-4C2D-BB35-17AC1878B88D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA371994-9134-47D7-93E2-61A9D78951A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F3328C29-5CED-415A-A690-0F1D808D24F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F076B3D5-3EF6-4B43-B425-57283C97A7E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F29738FE-605A-43B9-92FA-1B12232D3565}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{819B2BD5-037E-49BC-956D-D406AA71616B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7CC5904E-6253-4BD1-84A5-4CFA14FCFE80}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4DC2D614-929A-4F36-8314-4346CB324830}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2484D0E6-FE35-4C90-8F4E-32118EE1F28E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C938CAC4-A945-4CA1-B888-53A0BF9A9D87}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8624,7 +8624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42995761-ED43-4BF9-8CCD-47CE66063703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4426BE3-CD62-40D9-9611-9612DB95B805}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9824,18 +9824,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5252818-08F0-4953-AD12-7876D03303CD}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F4A2E0F2-2708-481D-9BC8-66EB1A5965A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F61C6594-4526-4709-B4FE-505B5FF3DC41}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82F0AE63-C455-4AFC-8786-2AB332386370}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C98C702-E051-445E-859B-5306664B24DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4DFB72D-B5A7-4205-870B-F20E3481FDBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B51E4EE-5B42-4B3C-BDF8-C93B8CB5F40E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84D8ACAB-1448-4E36-8F08-799C37F05BBE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38707CD5-7562-4167-BA4B-BFE1B2F052DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45E1BA3C-4ACF-447A-8D48-C434832A8C65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B4B86AF-A654-41D9-9CBF-AADB0A828A50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69A8B888-6DE3-4FF9-9544-7198AC2AFBE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{186424E7-63E3-4B4C-865E-8B0DE137842D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FFB85742-8CFE-4240-ABE5-7CF909B1EB2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5318406-2670-409B-A3BE-82FCCE8F2717}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF022023-F12A-414E-8322-C7E7DD37417B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD524246-585D-4141-AF61-98D3383ECBB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CC88BCC-AB9E-41C1-AFCF-E1EECF379E21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9CE5EC1-116E-4803-AAC1-AEA1FFCC6A98}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31018C13-3372-47F8-A8AE-531B1F99094C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{720A8F40-0891-41A1-8CCA-B506A072398F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{180BA629-4CAA-4AD2-AB1E-35FD574EB1B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53DB29F9-2C60-4F26-ABFD-E3DC144D2B60}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A013B33-C546-4486-A55E-298F0D8AE39F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9848,7 +9848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62792D2A-58C1-4C17-8416-6D51FA7B7F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99812F0-7B39-41E8-953C-C339073BF8F6}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11048,18 +11048,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3516B2A6-6ACF-4714-A034-ABD6F0B59A63}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{71DC284B-3FE1-4BD0-81A5-B0E47CBED581}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB2F6D2B-0B4C-4B47-A99A-82111E44F49D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A19E5573-9B68-4A3E-A46E-543A7126824D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBC0A09A-893F-4E72-AC26-40AB5A114FF1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A1D3FFA-08BB-4EB8-AA17-E68C889CA830}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF7C81E5-DBB8-40AB-AE4C-2157717A9072}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{528D24C7-1E61-4F8D-93AD-B3D3565535CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{216CA9BE-ABD7-4630-947F-D9DF047B62D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DCB46E12-7F1B-4504-AEEA-0A2C784F1AD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{826E9F9E-6957-4DDE-B5C4-BFCB56FBB3A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD6BFBBA-55BB-4B2B-B824-7A8BB61CF3B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C11832A1-F324-4994-A0BE-D441A0A19375}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AA5BC1FB-3928-44FC-88B8-76E2E19064BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B0A4D6A-FC77-4040-8FF1-1F748C2281BA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7C09E52B-3251-403D-BD9F-6817750225E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83C3FA76-6E4F-45B1-8A6F-2AAA475F824C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03EEDB4F-A76B-4274-AD5B-10D46589C14B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B7FF69B-1457-44AF-B8D9-FC08C2B3335F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13749378-6670-485F-83C1-19A07116EDFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B8E6A80-9BB6-487B-9E6F-0F2BA40A16BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9029270-D483-4ACE-B7FB-B23F30C2BAE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{695879C6-64B0-48B4-84E9-8D3CD9A7D818}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FDA405E-B0B5-49AC-A5BB-AD06653A1002}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11072,7 +11072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FFBA79-CBEF-4E5E-9DD0-D0AABCB947CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE1202-76D8-4C1B-96E1-E55FF28D1AC1}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12264,18 +12264,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8919A6A3-B943-4825-8157-CB443D42E8AF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{94241482-073D-448B-8384-BA180F67C243}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F78BF41-DCBC-4BFC-8731-9CE41701C757}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{491D51FE-1252-49CB-BAC8-81DA3109EAFB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B92BBC3B-F852-4FEB-860D-A1DC5F557385}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FAD148D8-BC59-4580-8A68-EA7A2C3DE83C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA8E7652-7588-4164-868B-4B2698BA2FD5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6172676D-78A6-4B95-AAC9-92509E389436}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9081C64D-1062-4525-B626-0FAB85AE1C87}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CC7EC70-1093-4AC1-BD19-80D6154C0BBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C36DD982-E05F-409B-A891-BFDD9C4BB005}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E789F91-E2CC-4C48-95AD-B10E0AC0E060}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA71C2AD-8333-45D0-A351-F4EA89AEE702}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4BF39FFE-DEC3-4FF4-A799-1F49526B007F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCC0F094-C821-420F-8EF4-C1337987113A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB53B641-1F92-4BD6-A131-76CBD1766860}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84A1E665-008F-48ED-86E1-2421283E49D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F000D139-4DBF-4BC0-BC65-0306928E2949}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAD316EA-C857-469B-BA93-FAC1574D0183}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{819B0973-BAF6-4D73-A82E-C6BB012FA6A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71138797-28F0-40B6-BCF0-B2CD1D4BFC09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C13AA3FB-D745-4C74-BED8-132A3F03B67C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D86C943B-D520-4ECD-B5FA-62B5F910DDA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABC803F5-9144-40FA-9322-3C746C180D97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12288,7 +12288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD4B3AA-971D-4C57-9ECD-8C06E8AD9E33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D16B1-3D55-4670-92E7-A665D6C00CED}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13480,18 +13480,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2E41229-2E0F-45DC-AE8D-137DF60AEB15}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{74125855-823D-4B1B-9305-21537CC62F23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94F37FDB-22C6-4223-818D-D0CA6859B11A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F3F106E-3C90-4455-9A56-CE49421B71E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF36D8AB-3F13-426E-AEBD-0D02B85F8FBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38C51527-37AA-43C5-9436-97558E60E19C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E3E22B0-EA8F-4F5A-8F18-A2C2B019C7D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA6E81D5-CD1A-41D6-86D8-2C5830726EEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44F98D0C-A98A-4082-A333-31C30FE3AE0C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C072BD2-734B-412A-9575-56E72100CB5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6017F3D-6A4D-4A29-BEFF-F2806EC6FF2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57B389DF-5A6D-41A7-BCB0-6D39E386E52E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2AAB044-552A-4BDD-9E53-E6F7BB904C27}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2607E947-7B95-4EC9-B3C0-1C7CDAB21BF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{276FCEA3-7071-4871-9224-1F4AB546C5A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE42EEF6-39EC-4805-A7C5-F3B0C21210C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66946F1A-D59E-4957-A049-6F7C68DB303B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C15C269-CBFC-4E76-A0FF-E8991C526CB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85D29F2E-8067-4425-8E40-3F783EB45B2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6C52F1C-72A6-4C39-B147-2EC5F83C0968}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D67576D1-C647-494B-A63B-1AE06630A02A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3C3020B-2520-469E-90AE-D14D4988F942}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86BDD452-EA57-4022-91E2-C853D6E03520}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E678D16-DB92-4537-85BB-CE3807C758EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13504,7 +13504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E686713C-8A9D-49D8-B72A-8861C30127D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5881BD-EB64-47AD-AB48-D647ED907159}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14692,18 +14692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51EADC8B-B7B9-44AD-A8F1-80402740DC29}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3E458ED1-5108-4AB6-A070-F82C5C881D79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{065563E0-64BB-41B3-A1D2-BD6C06569F57}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4A441EDF-F241-4352-8C08-1AF5F93EF7B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DA1C2CE-4AE6-4E35-BF28-C339FE6DA59F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69A00C1F-1B49-4465-A284-D619D67580A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{516D4A77-BF6C-4506-ACCE-A3B238959CEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CCB637E-786E-47B7-B572-3D47E182AD92}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D211B22F-F960-4ABA-9496-AA338FFB29B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BECA0E28-6698-45ED-82D4-D447DDA8E20A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B38C3B3-F698-42C7-886E-8D327DCDC1ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60DEFC7E-5401-422B-A5A7-61BA3DE7CBF9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5602372-C60D-46B8-B2D6-E6B457A15758}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A2A5B351-6E47-48A8-A9CC-9D19D67ABE48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB048412-03C7-434A-99CC-660CD7E795D4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AFCE42A-AF42-49DA-AE88-9982CDEBB70B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5506E669-5BA8-4AFA-8596-B2E2F97A1B86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3667CE1A-BBB6-4825-B1AB-78A99CCCE5A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D33C7489-19EB-49E9-83FD-097C4045D96B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9552FE11-8523-4756-A5A5-6104A01AB915}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{081BD2B9-E652-461F-B631-260C44FC5CDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{335C774A-E156-4DEC-9734-7DD0C713523B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75A129A0-9447-4F78-ABA9-3FC08731B1FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A59411D-965B-4DD9-A129-615DDDB8E285}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14716,7 +14716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F70A2B9-1B0C-4C13-9ED3-935F7ECC9288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA6F87-DB8F-48BB-8617-8E385123991A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15904,18 +15904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFB9321F-593A-4306-B624-E2596DAFEB45}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{BBC31304-6029-4717-9108-07ED68624573}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEF4E3CE-E85F-4582-8FBA-FF957F9A4BC2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{952BEBBE-0D6F-47B9-AA8C-D21AB1635E5D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1E5EBE0-6371-4EB6-8B94-3FC424B15583}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7137FE02-E2AD-49CA-8412-AB2DFA7ECA9F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C50FBF0-4CC6-47D1-BBCD-7A876AB527FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B179E75-BC1A-4E26-9B19-0AF635C4F024}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{173424FE-584F-4070-85D4-3EE7D0CBAC00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{394133D7-ECDF-4B46-9D81-C728DAEC5A64}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6A66375-A853-43EF-927B-79AB05494119}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAF7336E-4BB9-45E7-8858-1CBBE8A5BE90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDB5548F-1D2C-47C4-9D30-27BC7B2274E0}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F1082A30-DEE7-4E29-A2E0-A7B85C40EDA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC42D997-CD25-4E3F-AD3D-2BA6ADE5ABF8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8FC80CC-F16F-4E3D-8EA2-226D54C2D2AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E80A473C-0195-419E-BFB8-8BC78983E1CA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8508A2CA-E380-4194-ADC7-6A9ED07A707A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6F5421A-7EAE-4D8E-AC02-BD97CC400866}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2D70CD5-1802-4DFE-B015-A7E7477541D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D4E3876-8704-4F44-9011-607AEBC456BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C67D01F-BDCC-413A-A412-17B07E5370D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26C74CF8-5EFC-4D9B-959E-3DE9F9F4BCBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54F7BDD2-621A-4933-BA00-F87E8B0EBAE3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
